--- a/문서/자유수강권자 추가 환불(3-4월).xlsx
+++ b/문서/자유수강권자 추가 환불(3-4월).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
   <si>
     <t>고건</t>
   </si>
@@ -153,6 +153,16 @@
   </si>
   <si>
     <t>재료(교재)비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>추가/중단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +170,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +184,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -206,12 +227,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,8 +248,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -533,11 +564,12 @@
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -559,14 +591,17 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -588,14 +623,14 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>12610</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
@@ -617,14 +652,14 @@
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>12610</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2016</v>
       </c>
@@ -646,14 +681,14 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>12610</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -675,14 +710,14 @@
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>25210</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>2016</v>
       </c>
@@ -693,257 +728,260 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>25210</v>
+      </c>
+      <c r="I6" s="5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>25210</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
         <v>25210</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <v>25210</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="5">
         <v>17000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9">
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
         <v>22410</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10">
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
         <v>22410</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11">
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
         <v>22410</v>
       </c>
-      <c r="I11">
+      <c r="I12" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="5">
         <v>25210</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>15</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5">
         <v>35590</v>
       </c>
-      <c r="I13">
+      <c r="I14" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <v>16100</v>
-      </c>
-      <c r="I14">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>2016</v>
       </c>
@@ -965,14 +1003,14 @@
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>16100</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -983,25 +1021,25 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>16100</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
@@ -1015,22 +1053,22 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>16100</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -1041,25 +1079,25 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>16100</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>17000</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -1070,25 +1108,25 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19">
-        <v>20170</v>
-      </c>
-      <c r="I19">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5">
+        <v>16100</v>
+      </c>
+      <c r="I19" s="5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -1096,28 +1134,28 @@
         <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>20170</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>85000</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -1128,25 +1166,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>20170</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>85000</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>2016</v>
       </c>
@@ -1154,28 +1192,31 @@
         <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="H22" s="5">
         <v>20170</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="5">
+        <v>85000</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -1197,14 +1238,14 @@
       <c r="G23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>20170</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -1218,22 +1259,22 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24">
-        <v>21230</v>
-      </c>
-      <c r="I24">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="H24" s="5">
+        <v>20170</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
@@ -1244,25 +1285,25 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>21230</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="5">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>2016</v>
       </c>
@@ -1282,16 +1323,16 @@
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <v>20760</v>
-      </c>
-      <c r="I26">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="H26" s="5">
+        <v>21230</v>
+      </c>
+      <c r="I26" s="5">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -1302,25 +1343,25 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27">
-        <v>20760</v>
-      </c>
-      <c r="I27">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="H27" s="5">
+        <v>21230</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -1331,25 +1372,25 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>20760</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="5">
         <v>5000</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -1357,112 +1398,112 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>20760</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="5">
+        <v>20760</v>
+      </c>
+      <c r="I30" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="5">
+        <v>20760</v>
+      </c>
+      <c r="I31" s="5">
         <v>8000</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E32" s="1">
         <v>22</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H30">
+      <c r="H32" s="5">
         <v>1730</v>
       </c>
-      <c r="I30">
+      <c r="I32" s="5">
         <v>9800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31">
-        <v>16040</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1">
-        <v>19</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32">
-        <v>16040</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1487,10 +1528,10 @@
       <c r="G33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <v>16040</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1505,21 +1546,21 @@
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>16040</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1531,24 +1572,24 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>16040</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1563,21 +1604,21 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>16040</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1592,21 +1633,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
         <v>22</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>16040</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1621,22 +1662,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38">
-        <v>19370</v>
-      </c>
-      <c r="I38">
-        <v>22000</v>
+        <v>29</v>
+      </c>
+      <c r="H38" s="5">
+        <v>16040</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1647,25 +1688,25 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>6</v>
       </c>
       <c r="E39" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39">
-        <v>19370</v>
-      </c>
-      <c r="I39">
-        <v>22000</v>
+        <v>29</v>
+      </c>
+      <c r="H39" s="5">
+        <v>16040</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1676,25 +1717,25 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <v>19370</v>
       </c>
-      <c r="I40">
-        <v>2000</v>
+      <c r="I40" s="5">
+        <v>22000</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1705,24 +1746,24 @@
         <v>3</v>
       </c>
       <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
         <v>6</v>
       </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
       <c r="E41" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>19370</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="5">
         <v>22000</v>
       </c>
     </row>
@@ -1730,58 +1771,58 @@
       <c r="A42" s="1">
         <v>2016</v>
       </c>
-      <c r="B42" s="3">
-        <v>4</v>
+      <c r="B42" s="2">
+        <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>21600</v>
-      </c>
-      <c r="I42">
-        <v>7500</v>
+        <v>31</v>
+      </c>
+      <c r="H42" s="5">
+        <v>19370</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>2016</v>
       </c>
-      <c r="B43" s="3">
-        <v>4</v>
+      <c r="B43" s="2">
+        <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43">
-        <v>21600</v>
-      </c>
-      <c r="I43">
-        <v>7500</v>
+        <v>31</v>
+      </c>
+      <c r="H43" s="5">
+        <v>19370</v>
+      </c>
+      <c r="I43" s="5">
+        <v>22000</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1792,24 +1833,24 @@
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <v>21600</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="5">
         <v>7500</v>
       </c>
     </row>
@@ -1824,22 +1865,22 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>22060</v>
-      </c>
-      <c r="I45">
-        <v>17000</v>
+        <v>5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>21600</v>
+      </c>
+      <c r="I45" s="5">
+        <v>7500</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1850,25 +1891,25 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>22060</v>
-      </c>
-      <c r="I46">
-        <v>17000</v>
+        <v>5</v>
+      </c>
+      <c r="H46" s="5">
+        <v>21600</v>
+      </c>
+      <c r="I46" s="5">
+        <v>7500</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1879,24 +1920,24 @@
         <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>22060</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="5">
         <v>17000</v>
       </c>
     </row>
@@ -1914,19 +1955,19 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>22410</v>
-      </c>
-      <c r="I48">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <v>22060</v>
+      </c>
+      <c r="I48" s="5">
+        <v>17000</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1943,19 +1984,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>22410</v>
-      </c>
-      <c r="I49">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>22060</v>
+      </c>
+      <c r="I49" s="5">
+        <v>17000</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1972,19 +2013,19 @@
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>22410</v>
-      </c>
-      <c r="I50">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="H50" s="5">
+        <v>22060</v>
+      </c>
+      <c r="I50" s="5">
+        <v>17000</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1998,22 +2039,22 @@
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51">
-        <v>22060</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>22410</v>
+      </c>
+      <c r="I51" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2024,25 +2065,25 @@
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>35290</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>22410</v>
+      </c>
+      <c r="I52" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2053,25 +2094,25 @@
         <v>4</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53">
-        <v>14960</v>
-      </c>
-      <c r="I53">
-        <v>17000</v>
+        <v>2</v>
+      </c>
+      <c r="H53" s="5">
+        <v>22410</v>
+      </c>
+      <c r="I53" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2085,22 +2126,22 @@
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54">
-        <v>14960</v>
-      </c>
-      <c r="I54">
-        <v>17000</v>
+        <v>15</v>
+      </c>
+      <c r="H54" s="5">
+        <v>22060</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2111,25 +2152,25 @@
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55">
-        <v>14960</v>
-      </c>
-      <c r="I55">
-        <v>12750</v>
+        <v>3</v>
+      </c>
+      <c r="H55" s="5">
+        <v>35290</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2143,21 +2184,21 @@
         <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="5">
         <v>14960</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="5">
         <v>17000</v>
       </c>
     </row>
@@ -2172,21 +2213,21 @@
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="5">
         <v>14960</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="5">
         <v>17000</v>
       </c>
     </row>
@@ -2201,22 +2242,22 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58">
-        <v>20870</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H58" s="5">
+        <v>14960</v>
+      </c>
+      <c r="I58" s="5">
+        <v>12750</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2233,19 +2274,19 @@
         <v>2</v>
       </c>
       <c r="E59" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59">
-        <v>20870</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H59" s="5">
+        <v>14960</v>
+      </c>
+      <c r="I59" s="5">
+        <v>17000</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2259,22 +2300,22 @@
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1">
         <v>9</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60">
-        <v>19520</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="H60" s="5">
+        <v>14960</v>
+      </c>
+      <c r="I60" s="5">
+        <v>17000</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2297,12 +2338,12 @@
         <v>18</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61">
-        <v>19520</v>
-      </c>
-      <c r="I61">
+        <v>21</v>
+      </c>
+      <c r="H61" s="5">
+        <v>20870</v>
+      </c>
+      <c r="I61" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2317,22 +2358,22 @@
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62">
-        <v>21600</v>
-      </c>
-      <c r="I62">
-        <v>13000</v>
+        <v>21</v>
+      </c>
+      <c r="H62" s="5">
+        <v>20870</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2346,22 +2387,22 @@
         <v>1</v>
       </c>
       <c r="D63" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63">
-        <v>21600</v>
-      </c>
-      <c r="I63">
-        <v>13000</v>
+        <v>22</v>
+      </c>
+      <c r="H63" s="5">
+        <v>19520</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2378,18 +2419,18 @@
         <v>3</v>
       </c>
       <c r="E64" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64">
-        <v>21170</v>
-      </c>
-      <c r="I64">
+        <v>22</v>
+      </c>
+      <c r="H64" s="5">
+        <v>19520</v>
+      </c>
+      <c r="I64" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2407,19 +2448,19 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65">
-        <v>21170</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="H65" s="5">
+        <v>21600</v>
+      </c>
+      <c r="I65" s="5">
+        <v>13000</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2433,22 +2474,22 @@
         <v>1</v>
       </c>
       <c r="D66" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66">
-        <v>21170</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="H66" s="5">
+        <v>21600</v>
+      </c>
+      <c r="I66" s="5">
+        <v>13000</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2459,25 +2500,25 @@
         <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
       </c>
       <c r="E67" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67">
-        <v>21170</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="H67" s="5">
+        <v>21600</v>
+      </c>
+      <c r="I67" s="5">
+        <v>13000</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2491,21 +2532,21 @@
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68">
-        <v>1770</v>
-      </c>
-      <c r="I68">
+        <v>25</v>
+      </c>
+      <c r="H68" s="5">
+        <v>21170</v>
+      </c>
+      <c r="I68" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2520,21 +2561,21 @@
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69">
-        <v>15240</v>
-      </c>
-      <c r="I69">
+        <v>25</v>
+      </c>
+      <c r="H69" s="5">
+        <v>21170</v>
+      </c>
+      <c r="I69" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2549,21 +2590,21 @@
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E70" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70">
-        <v>15240</v>
-      </c>
-      <c r="I70">
+        <v>25</v>
+      </c>
+      <c r="H70" s="5">
+        <v>21170</v>
+      </c>
+      <c r="I70" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2575,24 +2616,24 @@
         <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E71" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71">
-        <v>15240</v>
-      </c>
-      <c r="I71">
+        <v>25</v>
+      </c>
+      <c r="H71" s="5">
+        <v>21170</v>
+      </c>
+      <c r="I71" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2607,21 +2648,21 @@
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72">
-        <v>15240</v>
-      </c>
-      <c r="I72">
+        <v>28</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1770</v>
+      </c>
+      <c r="I72" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2633,24 +2674,24 @@
         <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="5">
         <v>15240</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2665,21 +2706,21 @@
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1">
         <v>22</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="5">
         <v>15240</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2694,21 +2735,21 @@
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="5">
         <v>15240</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2732,12 +2773,12 @@
         <v>12</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76">
-        <v>17910</v>
-      </c>
-      <c r="I76">
+        <v>29</v>
+      </c>
+      <c r="H76" s="5">
+        <v>15240</v>
+      </c>
+      <c r="I76" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2752,21 +2793,21 @@
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77">
-        <v>17910</v>
-      </c>
-      <c r="I77">
+        <v>29</v>
+      </c>
+      <c r="H77" s="5">
+        <v>15240</v>
+      </c>
+      <c r="I77" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2778,24 +2819,24 @@
         <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E78" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78">
-        <v>17910</v>
-      </c>
-      <c r="I78">
+        <v>29</v>
+      </c>
+      <c r="H78" s="5">
+        <v>15240</v>
+      </c>
+      <c r="I78" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2807,24 +2848,140 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
         <v>6</v>
       </c>
-      <c r="D79" s="1">
-        <v>2</v>
-      </c>
       <c r="E79" s="1">
+        <v>16</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="5">
+        <v>15240</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B80" s="3">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1">
+        <v>19</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="5">
+        <v>17910</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1">
+        <v>21</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="5">
+        <v>17910</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="5">
+        <v>17910</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
         <v>25</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H79">
+      <c r="H83" s="5">
         <v>17910</v>
       </c>
-      <c r="I79">
+      <c r="I83" s="5">
         <v>0</v>
       </c>
     </row>
